--- a/documents/IBM Reputation Economy - Financial Data.xlsx
+++ b/documents/IBM Reputation Economy - Financial Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IBM\Reputation Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\IBM\Reputation-Economics-IBM-Intern-Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082327A6-DC94-4C41-B943-9B3B0D973C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911DB4C-10D2-464B-87E4-644CE3734E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{70C59081-EC18-4FFB-B71F-24370DF88A1C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -548,6 +548,192 @@
   </si>
   <si>
     <t>$2851971000</t>
+  </si>
+  <si>
+    <t>$1184000000</t>
+  </si>
+  <si>
+    <t>$117000000</t>
+  </si>
+  <si>
+    <t>$78000000</t>
+  </si>
+  <si>
+    <t>$261000000</t>
+  </si>
+  <si>
+    <t>$177000000</t>
+  </si>
+  <si>
+    <t>$765000000</t>
+  </si>
+  <si>
+    <t>$76000000</t>
+  </si>
+  <si>
+    <t>$47000000</t>
+  </si>
+  <si>
+    <t>$924523765</t>
+  </si>
+  <si>
+    <t>$820794309</t>
+  </si>
+  <si>
+    <t>$52113122</t>
+  </si>
+  <si>
+    <t>$2191257</t>
+  </si>
+  <si>
+    <t>$323725177</t>
+  </si>
+  <si>
+    <t>$211698082</t>
+  </si>
+  <si>
+    <t>$148041610</t>
+  </si>
+  <si>
+    <t>$33704104</t>
+  </si>
+  <si>
+    <t>$115050558</t>
+  </si>
+  <si>
+    <t>$128552668</t>
+  </si>
+  <si>
+    <t>$170166777</t>
+  </si>
+  <si>
+    <t>$86794097</t>
+  </si>
+  <si>
+    <t>$467989195</t>
+  </si>
+  <si>
+    <t>$310761349</t>
+  </si>
+  <si>
+    <t>$68153325</t>
+  </si>
+  <si>
+    <t>$314799790</t>
+  </si>
+  <si>
+    <t>$55354920</t>
+  </si>
+  <si>
+    <t>$459443071</t>
+  </si>
+  <si>
+    <t>$388486791</t>
+  </si>
+  <si>
+    <t>$395860722</t>
+  </si>
+  <si>
+    <t>$336700000</t>
+  </si>
+  <si>
+    <t>$325600000</t>
+  </si>
+  <si>
+    <t>$2202452000</t>
+  </si>
+  <si>
+    <t>$2184559000</t>
+  </si>
+  <si>
+    <t>$630998000</t>
+  </si>
+  <si>
+    <t>$597056000</t>
+  </si>
+  <si>
+    <t>$1883727000</t>
+  </si>
+  <si>
+    <t>$1819367000</t>
+  </si>
+  <si>
+    <t>$1038082000</t>
+  </si>
+  <si>
+    <t>$789745000</t>
+  </si>
+  <si>
+    <t>$84159000</t>
+  </si>
+  <si>
+    <t>$68360000</t>
+  </si>
+  <si>
+    <t>$3669952693</t>
+  </si>
+  <si>
+    <t>$3635705403</t>
+  </si>
+  <si>
+    <t>$670423025</t>
+  </si>
+  <si>
+    <t>$659498294</t>
+  </si>
+  <si>
+    <t>$1459823192</t>
+  </si>
+  <si>
+    <t>$1353786321</t>
+  </si>
+  <si>
+    <t>$1127184121</t>
+  </si>
+  <si>
+    <t>$1115022320</t>
+  </si>
+  <si>
+    <t>$2962860901</t>
+  </si>
+  <si>
+    <t>$1098760230</t>
+  </si>
+  <si>
+    <t>$508056378</t>
+  </si>
+  <si>
+    <t>$34122172</t>
+  </si>
+  <si>
+    <t>$6519300000</t>
+  </si>
+  <si>
+    <t>$7038400000</t>
+  </si>
+  <si>
+    <t>$1657500000</t>
+  </si>
+  <si>
+    <t>$2074100000</t>
+  </si>
+  <si>
+    <t>$1200100000</t>
+  </si>
+  <si>
+    <t>$1479700000</t>
+  </si>
+  <si>
+    <t>$2400500000</t>
+  </si>
+  <si>
+    <t>$2623100000</t>
+  </si>
+  <si>
+    <t>$413300000</t>
+  </si>
+  <si>
+    <t>$588200000</t>
   </si>
 </sst>
 </file>
@@ -599,7 +785,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -622,11 +808,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -654,6 +853,7 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,24 +1170,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9E6EBC-CE8D-48A5-BDB3-75099234FD0F}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.90625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.36328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.90625" style="3" customWidth="1"/>
     <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="12.54296875" style="3" customWidth="1"/>
@@ -2367,18 +2569,37 @@
       <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="2">
+        <v>892000000</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" s="2">
+        <v>945000000</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2394,18 +2615,38 @@
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2">
+        <v>3158507000000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2116898000000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5657327000000</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="F35" s="2">
+        <v>3300200000000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6624774000000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2379465000000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1757781000000</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4855369000000</v>
+      </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="L35" s="2">
+        <v>3051920000000</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4978986000000</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2421,17 +2662,33 @@
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="2">
+        <v>10053692000000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7740592000000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>12682903000000</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>4825618000000</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="2">
+        <v>6684618000000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5048800000000</v>
+      </c>
+      <c r="J36" s="2">
+        <v>8873956000000</v>
+      </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>3706655000000</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2448,18 +2705,42 @@
       <c r="A37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -2475,17 +2756,35 @@
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="B38" s="2">
+        <v>7059000000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15733000000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>57614000000</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="F38" s="2">
+        <v>18343000000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>22940000000000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7181000000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>15227000000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>56321000000</v>
+      </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <v>21631000000</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2502,17 +2801,37 @@
       <c r="A39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="B39" s="2">
+        <v>3530000000000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3011000000000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10965119000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2554789000000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4288337000000</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="H39" s="2">
+        <v>2784000000000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3753000000000</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9369892000000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1157882000000</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3288318000000</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2529,18 +2848,42 @@
       <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="B40" s="2">
+        <v>45284719000000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>22003567000000</v>
+      </c>
+      <c r="D40" s="2">
+        <v>69097219000000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>11156804000000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45133285000000</v>
+      </c>
+      <c r="G40" s="2">
+        <v>95707663000000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>43764490000000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>22611042000000</v>
+      </c>
+      <c r="J40" s="2">
+        <v>66759930000000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>11237253000000</v>
+      </c>
+      <c r="L40" s="2">
+        <v>42187664000000</v>
+      </c>
+      <c r="M40" s="2">
+        <v>83305925000000</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -2556,17 +2899,37 @@
       <c r="A41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="2">
+        <v>8673407000000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5797360000000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19711478000000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>74557000000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5875830000000</v>
+      </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="H41" s="2">
+        <v>7168378000000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4397957000000</v>
+      </c>
+      <c r="J41" s="2">
+        <v>18191176000000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>45028000000</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5689466000000</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2583,17 +2946,37 @@
       <c r="A42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="B42" s="2">
+        <v>37831000000000</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8794000000000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46602000000000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>13500000000000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>35358000000000</v>
+      </c>
+      <c r="G42" s="2">
+        <v>106700000000000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>34180000000000</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6483000000000</v>
+      </c>
+      <c r="J42" s="2">
+        <v>43141000000000</v>
+      </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>34113000000000</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2610,17 +2993,37 @@
       <c r="A43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="2">
+        <v>490747589782</v>
+      </c>
+      <c r="C43" s="2">
+        <v>183223424681</v>
+      </c>
+      <c r="D43" s="2">
+        <v>758846500000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>90195100000</v>
+      </c>
+      <c r="F43" s="2">
+        <v>563167578239</v>
+      </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="H43" s="2">
+        <v>402492112857</v>
+      </c>
+      <c r="I43" s="2">
+        <v>88130681014</v>
+      </c>
+      <c r="J43" s="2">
+        <v>576963500000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>47964100000</v>
+      </c>
+      <c r="L43" s="2">
+        <v>475980511759</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2637,18 +3040,37 @@
       <c r="A44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -2664,17 +3086,33 @@
       <c r="A45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="2">
+        <v>14121568000000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7235400000000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>34367000000000</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2">
+        <v>22707200000000</v>
+      </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="H45" s="2">
+        <v>16579331000000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>6827600000000</v>
+      </c>
+      <c r="J45" s="2">
+        <v>31619000000000</v>
+      </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>20324300000000</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2691,18 +3129,38 @@
       <c r="A46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="2">
+        <v>16337000000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>21334000000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>40956000000</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="F46" s="2">
+        <v>10324000000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>17545000000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>13266000000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>15821000000</v>
+      </c>
+      <c r="J46" s="2">
+        <v>31440000000</v>
+      </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="L46" s="2">
+        <v>9290000000</v>
+      </c>
+      <c r="M46" s="2">
+        <v>15417000000</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -2718,18 +3176,38 @@
       <c r="A47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -2745,17 +3223,33 @@
       <c r="A48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="2">
+        <v>33272600000000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>31200000000000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>96537800000000</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2">
+        <v>49920000000000</v>
+      </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="H48" s="2">
+        <v>32948100000000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>21640000000000</v>
+      </c>
+      <c r="J48" s="2">
+        <v>88400900000000</v>
+      </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>47100000000000</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2772,18 +3266,42 @@
       <c r="A49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2799,17 +3317,37 @@
       <c r="A50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2826,18 +3364,42 @@
       <c r="A51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="B51" s="2">
+        <v>12316000000000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3926000000000</v>
+      </c>
+      <c r="D51" s="2">
+        <v>27789000000000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1146000000000</v>
+      </c>
+      <c r="F51" s="2">
+        <v>23222000000000</v>
+      </c>
+      <c r="G51" s="2">
+        <v>15190000000000</v>
+      </c>
+      <c r="H51" s="2">
+        <v>12883000000000</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3479000000000</v>
+      </c>
+      <c r="J51" s="2">
+        <v>28864000000000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1860000000000</v>
+      </c>
+      <c r="L51" s="2">
+        <v>24557000000000</v>
+      </c>
+      <c r="M51" s="2">
+        <v>14431000000000</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3255,18 +3817,42 @@
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="B66" s="2">
+        <v>12647859000000</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4765000000000</v>
+      </c>
+      <c r="D66" s="2">
+        <v>17591706000000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1760000000000</v>
+      </c>
+      <c r="F66" s="2">
+        <v>8543000000000</v>
+      </c>
+      <c r="G66" s="2">
+        <v>24061000000000</v>
+      </c>
+      <c r="H66" s="2">
+        <v>10674200000000</v>
+      </c>
+      <c r="I66" s="2">
+        <v>4474000000000</v>
+      </c>
+      <c r="J66" s="2">
+        <v>14915850000000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1631000000000</v>
+      </c>
+      <c r="L66" s="2">
+        <v>7354000000000</v>
+      </c>
+      <c r="M66" s="2">
+        <v>20817000000000</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -4234,7 +4820,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
